--- a/CDM Content/Energy &  Resources/CDM_Climate.xlsx
+++ b/CDM Content/Energy &  Resources/CDM_Climate.xlsx
@@ -446,7 +446,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,9 +545,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,26 +738,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B31AB8-993E-4D4B-AEA8-7989F5843AC8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A24C1D-9994-4866-9989-C63206960D55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -778,9 +770,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A24C1D-9994-4866-9989-C63206960D55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B31AB8-993E-4D4B-AEA8-7989F5843AC8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>